--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Timp3-Agtr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Timp3-Agtr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Agtr2</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>113.9271086666667</v>
+        <v>62.15419033333333</v>
       </c>
       <c r="H2">
-        <v>341.781326</v>
+        <v>186.462571</v>
       </c>
       <c r="I2">
-        <v>0.4186548232357614</v>
+        <v>0.5307382952913039</v>
       </c>
       <c r="J2">
-        <v>0.5001257596740779</v>
+        <v>0.5798280707535227</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>3.743532666666667</v>
+        <v>0.01476566666666667</v>
       </c>
       <c r="N2">
-        <v>11.230598</v>
+        <v>0.044297</v>
       </c>
       <c r="O2">
-        <v>0.9802973346235675</v>
+        <v>0.003369932031170864</v>
       </c>
       <c r="P2">
-        <v>0.9802973346235675</v>
+        <v>0.003537680284170835</v>
       </c>
       <c r="Q2">
-        <v>426.4898529125498</v>
+        <v>0.9177480563985556</v>
       </c>
       <c r="R2">
-        <v>3838.408676212949</v>
+        <v>8.259732507587</v>
       </c>
       <c r="S2">
-        <v>0.4104062073453177</v>
+        <v>0.001788551981471185</v>
       </c>
       <c r="T2">
-        <v>0.4902719491850854</v>
+        <v>0.002051246334113549</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,51 +596,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>113.9271086666667</v>
+        <v>62.15419033333333</v>
       </c>
       <c r="H3">
-        <v>341.781326</v>
+        <v>186.462571</v>
       </c>
       <c r="I3">
-        <v>0.4186548232357614</v>
+        <v>0.5307382952913039</v>
       </c>
       <c r="J3">
-        <v>0.5001257596740779</v>
+        <v>0.5798280707535227</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.07523999999999999</v>
+        <v>3.743532666666667</v>
       </c>
       <c r="N3">
-        <v>0.22572</v>
+        <v>11.230598</v>
       </c>
       <c r="O3">
-        <v>0.01970266537643246</v>
+        <v>0.8543773151546027</v>
       </c>
       <c r="P3">
-        <v>0.01970266537643246</v>
+        <v>0.8969064524470826</v>
       </c>
       <c r="Q3">
-        <v>8.57187565608</v>
+        <v>232.6762418830509</v>
       </c>
       <c r="R3">
-        <v>77.14688090472001</v>
+        <v>2094.086176947458</v>
       </c>
       <c r="S3">
-        <v>0.008248615890443688</v>
+        <v>0.4534507597807149</v>
       </c>
       <c r="T3">
-        <v>0.009853810488992436</v>
+        <v>0.520051537968778</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -652,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.210481</v>
+        <v>62.15419033333333</v>
       </c>
       <c r="H4">
-        <v>75.631443</v>
+        <v>186.462571</v>
       </c>
       <c r="I4">
-        <v>0.09264247631899748</v>
+        <v>0.5307382952913039</v>
       </c>
       <c r="J4">
-        <v>0.110670858845055</v>
+        <v>0.5798280707535227</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.743532666666667</v>
+        <v>0.6232934999999999</v>
       </c>
       <c r="N4">
-        <v>11.230598</v>
+        <v>1.246587</v>
       </c>
       <c r="O4">
-        <v>0.9802973346235675</v>
+        <v>0.1422527528142264</v>
       </c>
       <c r="P4">
-        <v>0.9802973346235675</v>
+        <v>0.09955586726874661</v>
       </c>
       <c r="Q4">
-        <v>94.37625916587935</v>
+        <v>38.74030283252949</v>
       </c>
       <c r="R4">
-        <v>849.3863324929141</v>
+        <v>232.441816995177</v>
       </c>
       <c r="S4">
-        <v>0.0908171726084402</v>
+        <v>0.07549898352911778</v>
       </c>
       <c r="T4">
-        <v>0.1084903479463085</v>
+        <v>0.05772528645063113</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,10 +726,10 @@
         <v>75.631443</v>
       </c>
       <c r="I5">
-        <v>0.09264247631899748</v>
+        <v>0.2152737834352902</v>
       </c>
       <c r="J5">
-        <v>0.110670858845055</v>
+        <v>0.2351851819258409</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,33 +738,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.07523999999999999</v>
+        <v>0.01476566666666667</v>
       </c>
       <c r="N5">
-        <v>0.22572</v>
+        <v>0.044297</v>
       </c>
       <c r="O5">
-        <v>0.01970266537643246</v>
+        <v>0.003369932031170864</v>
       </c>
       <c r="P5">
-        <v>0.01970266537643246</v>
+        <v>0.003537680284170835</v>
       </c>
       <c r="Q5">
-        <v>1.89683659044</v>
+        <v>0.3722495589523334</v>
       </c>
       <c r="R5">
-        <v>17.07152931396</v>
+        <v>3.350246030571</v>
       </c>
       <c r="S5">
-        <v>0.001825303710557276</v>
+        <v>0.0007254580182699241</v>
       </c>
       <c r="T5">
-        <v>0.002180510898746509</v>
+        <v>0.0008320099812281784</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -779,22 +776,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>132.9889985</v>
+        <v>25.210481</v>
       </c>
       <c r="H6">
-        <v>265.977997</v>
+        <v>75.631443</v>
       </c>
       <c r="I6">
-        <v>0.4887027004452411</v>
+        <v>0.2152737834352902</v>
       </c>
       <c r="J6">
-        <v>0.3892033814808671</v>
+        <v>0.2351851819258409</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,27 +806,27 @@
         <v>11.230598</v>
       </c>
       <c r="O6">
-        <v>0.9802973346235675</v>
+        <v>0.8543773151546027</v>
       </c>
       <c r="P6">
-        <v>0.9802973346235675</v>
+        <v>0.8969064524470826</v>
       </c>
       <c r="Q6">
-        <v>497.8486601920344</v>
+        <v>94.37625916587935</v>
       </c>
       <c r="R6">
-        <v>2987.091961152206</v>
+        <v>849.3863324929141</v>
       </c>
       <c r="S6">
-        <v>0.4790739546698096</v>
+        <v>0.1839250371146166</v>
       </c>
       <c r="T6">
-        <v>0.3815350374921736</v>
+        <v>0.2109391071892277</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,55 +835,241 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>25.210481</v>
+      </c>
+      <c r="H7">
+        <v>75.631443</v>
+      </c>
+      <c r="I7">
+        <v>0.2152737834352902</v>
+      </c>
+      <c r="J7">
+        <v>0.2351851819258409</v>
+      </c>
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>132.9889985</v>
-      </c>
-      <c r="H7">
-        <v>265.977997</v>
-      </c>
-      <c r="I7">
-        <v>0.4887027004452411</v>
-      </c>
-      <c r="J7">
-        <v>0.3892033814808671</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
       <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.6232934999999999</v>
+      </c>
+      <c r="N7">
+        <v>1.246587</v>
+      </c>
+      <c r="O7">
+        <v>0.1422527528142264</v>
+      </c>
+      <c r="P7">
+        <v>0.09955586726874661</v>
+      </c>
+      <c r="Q7">
+        <v>15.7135289391735</v>
+      </c>
+      <c r="R7">
+        <v>94.281173635041</v>
+      </c>
+      <c r="S7">
+        <v>0.03062328830240365</v>
+      </c>
+      <c r="T7">
+        <v>0.02341406475538504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>29.744252</v>
+      </c>
+      <c r="H8">
+        <v>59.488504</v>
+      </c>
+      <c r="I8">
+        <v>0.2539879212734059</v>
+      </c>
+      <c r="J8">
+        <v>0.1849867473206364</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M7">
-        <v>0.07523999999999999</v>
-      </c>
-      <c r="N7">
-        <v>0.22572</v>
-      </c>
-      <c r="O7">
-        <v>0.01970266537643246</v>
-      </c>
-      <c r="P7">
-        <v>0.01970266537643246</v>
-      </c>
-      <c r="Q7">
-        <v>10.00609224714</v>
-      </c>
-      <c r="R7">
-        <v>60.03655348284</v>
-      </c>
-      <c r="S7">
-        <v>0.009628745775431496</v>
-      </c>
-      <c r="T7">
-        <v>0.007668343988693515</v>
+      <c r="M8">
+        <v>0.01476566666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.044297</v>
+      </c>
+      <c r="O8">
+        <v>0.003369932031170864</v>
+      </c>
+      <c r="P8">
+        <v>0.003537680284170835</v>
+      </c>
+      <c r="Q8">
+        <v>0.4391937102813334</v>
+      </c>
+      <c r="R8">
+        <v>2.635162261688</v>
+      </c>
+      <c r="S8">
+        <v>0.0008559220314297542</v>
+      </c>
+      <c r="T8">
+        <v>0.0006544239688291074</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>29.744252</v>
+      </c>
+      <c r="H9">
+        <v>59.488504</v>
+      </c>
+      <c r="I9">
+        <v>0.2539879212734059</v>
+      </c>
+      <c r="J9">
+        <v>0.1849867473206364</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.743532666666667</v>
+      </c>
+      <c r="N9">
+        <v>11.230598</v>
+      </c>
+      <c r="O9">
+        <v>0.8543773151546027</v>
+      </c>
+      <c r="P9">
+        <v>0.8969064524470826</v>
+      </c>
+      <c r="Q9">
+        <v>111.3485790075653</v>
+      </c>
+      <c r="R9">
+        <v>668.091474045392</v>
+      </c>
+      <c r="S9">
+        <v>0.2170015182592711</v>
+      </c>
+      <c r="T9">
+        <v>0.1659158072890768</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>29.744252</v>
+      </c>
+      <c r="H10">
+        <v>59.488504</v>
+      </c>
+      <c r="I10">
+        <v>0.2539879212734059</v>
+      </c>
+      <c r="J10">
+        <v>0.1849867473206364</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.6232934999999999</v>
+      </c>
+      <c r="N10">
+        <v>1.246587</v>
+      </c>
+      <c r="O10">
+        <v>0.1422527528142264</v>
+      </c>
+      <c r="P10">
+        <v>0.09955586726874661</v>
+      </c>
+      <c r="Q10">
+        <v>18.539398933962</v>
+      </c>
+      <c r="R10">
+        <v>74.15759573584799</v>
+      </c>
+      <c r="S10">
+        <v>0.03613048098270502</v>
+      </c>
+      <c r="T10">
+        <v>0.01841651606273044</v>
       </c>
     </row>
   </sheetData>
